--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://testbctcstudent-my.sharepoint.com/personal/jusnun404_bctcstudent_org/Documents/Productivity Software/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\Senior_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{09B506CF-F528-4441-8001-8EF6DBDEC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AC38A3C-3C3E-4C17-9C1C-F9343C063D71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8288D61C-655E-4463-B08B-3AFC9A173158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{D2CA3B49-F37C-404E-8452-632B820BCCBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Start Date</t>
   </si>
@@ -54,22 +54,61 @@
     <t>Design GUI</t>
   </si>
   <si>
-    <t>Design Code</t>
-  </si>
-  <si>
-    <t>Phase 1 Coding</t>
-  </si>
-  <si>
-    <t>Phase 2 Coding</t>
-  </si>
-  <si>
-    <t>Testing Phase</t>
-  </si>
-  <si>
-    <t>Fix Phase</t>
-  </si>
-  <si>
-    <t>Phase 3 Coding</t>
+    <t>Phase Name</t>
+  </si>
+  <si>
+    <t>Code the schedule function and program lock function</t>
+  </si>
+  <si>
+    <t>Code the usages times function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research </t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>Fix all the possible errors that the program may have</t>
+  </si>
+  <si>
+    <t>Second and Third Function</t>
+  </si>
+  <si>
+    <t>First Function</t>
+  </si>
+  <si>
+    <t>GUI Skeleton</t>
+  </si>
+  <si>
+    <t>Code GUI skeleton to start adding the functions to the program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalize the GUI </t>
+  </si>
+  <si>
+    <t>Add the Themes to the GUI, and stylize it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desing </t>
+  </si>
+  <si>
+    <t>Test the 2 last functions, and if the have errors correct it.</t>
+  </si>
+  <si>
+    <t>Test the first function and if have errors correct it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Test </t>
+  </si>
+  <si>
+    <t>Test the program in its entirety and give it as a beta program to some selected users with the purpose of testing it</t>
+  </si>
+  <si>
+    <t>Individual Testing / Fix</t>
+  </si>
+  <si>
+    <t>Functions Testing /Fix</t>
   </si>
 </sst>
 </file>
@@ -152,12 +191,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -222,42 +265,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$4:$E$11</c:f>
+              <c:f>Sheet1!$E$4:$E$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Research Phase</c:v>
+                  <c:v>Research </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Design GUI</c:v>
+                  <c:v>Desing </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Design Code</c:v>
+                  <c:v>GUI Skeleton</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Phase 1 Coding</c:v>
+                  <c:v>First Function</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Phase 2 Coding</c:v>
+                  <c:v>Individual Testing / Fix</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Phase 3 Coding</c:v>
+                  <c:v>Second and Third Function</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Testing Phase</c:v>
+                  <c:v>Functions Testing /Fix</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Fix Phase</c:v>
+                  <c:v>Finalize the GUI </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>User Test </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Fix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$11</c:f>
+              <c:f>Sheet1!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>44472</c:v>
                 </c:pt>
@@ -265,21 +314,27 @@
                   <c:v>44500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44522</c:v>
+                  <c:v>44514</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44532</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>44544</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>44557</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>44585</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>44619</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>44627</c:v>
                 </c:pt>
               </c:numCache>
@@ -296,7 +351,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
+              <c:f>Sheet1!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -317,64 +372,76 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$4:$E$11</c:f>
+              <c:f>Sheet1!$E$4:$E$13</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Research Phase</c:v>
+                  <c:v>Research </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Design GUI</c:v>
+                  <c:v>Desing </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Design Code</c:v>
+                  <c:v>GUI Skeleton</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Phase 1 Coding</c:v>
+                  <c:v>First Function</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Phase 2 Coding</c:v>
+                  <c:v>Individual Testing / Fix</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Phase 3 Coding</c:v>
+                  <c:v>Second and Third Function</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Testing Phase</c:v>
+                  <c:v>Functions Testing /Fix</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Fix Phase</c:v>
+                  <c:v>Finalize the GUI </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>User Test </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Fix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$11</c:f>
+              <c:f>Sheet1!$G$4:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1125,13 +1192,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>157528</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>165588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>365613</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>51288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1457,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F41711F-647E-45BD-B0D2-B131E9E587E9}">
-  <dimension ref="C3:F11"/>
+  <dimension ref="C3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,11 +1535,12 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="103.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1480,27 +1548,34 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C4" s="4">
         <v>44472</v>
       </c>
       <c r="D4" s="1">
-        <v>44499</v>
+        <v>44607</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
-        <v>27</v>
+      <c r="G4" s="2">
+        <f>_xlfn.DAYS(D4,C4)</f>
+        <v>135</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
         <v>44500</v>
       </c>
@@ -1508,27 +1583,35 @@
         <v>44520</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G13" si="0">_xlfn.DAYS(D5,C5)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
-        <v>44522</v>
+        <v>44514</v>
       </c>
       <c r="D6" s="1">
-        <v>11658</v>
+        <v>44531</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>44532</v>
       </c>
@@ -1536,65 +1619,121 @@
         <v>44555</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <v>44544</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44557</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
+        <v>44557</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44582</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2">
-        <v>23</v>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="4">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>44564</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44588</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <v>44585</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44613</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
         <v>44557</v>
       </c>
-      <c r="D8" s="1">
-        <v>44582</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2">
-        <v>25</v>
+      <c r="D12" s="1">
+        <v>44625</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="4">
-        <v>44585</v>
-      </c>
-      <c r="D9" s="1">
-        <v>44613</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>44627</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44635</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="4">
-        <v>44619</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44625</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="4">
-        <v>44627</v>
-      </c>
-      <c r="D11" s="1">
-        <v>44635</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>

--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\Senior_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8288D61C-655E-4463-B08B-3AFC9A173158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822AEC1E-D387-4669-88EC-2CD829D97746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{D2CA3B49-F37C-404E-8452-632B820BCCBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Start Date</t>
   </si>
@@ -45,15 +45,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Research Phase</t>
-  </si>
-  <si>
     <t>Duration(days)</t>
   </si>
   <si>
-    <t>Design GUI</t>
-  </si>
-  <si>
     <t>Phase Name</t>
   </si>
   <si>
@@ -102,13 +96,25 @@
     <t xml:space="preserve">User Test </t>
   </si>
   <si>
-    <t>Test the program in its entirety and give it as a beta program to some selected users with the purpose of testing it</t>
-  </si>
-  <si>
     <t>Individual Testing / Fix</t>
   </si>
   <si>
     <t>Functions Testing /Fix</t>
+  </si>
+  <si>
+    <t>Complete Test</t>
+  </si>
+  <si>
+    <t>Give it as a beta program to some selected users with the purpose of testing it, and receive feed back from them.</t>
+  </si>
+  <si>
+    <t>Test the program in its entirety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design all the document planing </t>
+  </si>
+  <si>
+    <t>Find ways and guides to carry out what the program and its planning require</t>
   </si>
 </sst>
 </file>
@@ -246,7 +252,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>Sheet1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -265,9 +271,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$4:$E$13</c:f>
+              <c:f>Sheet1!$D$4:$D$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Research </c:v>
                 </c:pt>
@@ -290,12 +296,15 @@
                   <c:v>Functions Testing /Fix</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Complete Test</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Finalize the GUI </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>User Test </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Fix</c:v>
                 </c:pt>
               </c:strCache>
@@ -303,10 +312,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$13</c:f>
+              <c:f>Sheet1!$B$4:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>44472</c:v>
                 </c:pt>
@@ -329,13 +338,16 @@
                   <c:v>44564</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>44586</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>44585</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>44557</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>44627</c:v>
+                <c:pt idx="10">
+                  <c:v>44623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -351,7 +363,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$3</c:f>
+              <c:f>Sheet1!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -372,9 +384,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$E$4:$E$13</c:f>
+              <c:f>Sheet1!$D$4:$D$14</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Research </c:v>
                 </c:pt>
@@ -397,12 +409,15 @@
                   <c:v>Functions Testing /Fix</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Complete Test</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Finalize the GUI </c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>User Test </c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Fix</c:v>
                 </c:pt>
               </c:strCache>
@@ -410,10 +425,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$13</c:f>
+              <c:f>Sheet1!$F$4:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>135</c:v>
                 </c:pt>
@@ -436,13 +451,16 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -461,22 +479,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="300"/>
+        <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:serLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:serLines>
         <c:axId val="614930096"/>
         <c:axId val="614930424"/>
       </c:barChart>
@@ -554,6 +558,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1190,16 +1208,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>157528</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>165588</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>365613</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>51288</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>917330</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1524,217 +1542,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F41711F-647E-45BD-B0D2-B131E9E587E9}">
-  <dimension ref="C3:G13"/>
+  <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="103.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="103.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="4">
+    <row r="4" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>44472</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
         <v>44607</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <f>_xlfn.DAYS(D4,C4)</f>
+        <v>26</v>
+      </c>
+      <c r="F4" s="2">
+        <f>_xlfn.DAYS(C4,B4)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>44500</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
         <v>44520</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" ref="G5:G13" si="0">_xlfn.DAYS(D5,C5)</f>
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F14" si="0">_xlfn.DAYS(C5,B5)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
         <v>44514</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1">
         <v>44531</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>44532</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
         <v>44555</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
         <v>44544</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C8" s="1">
         <v>44557</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
         <v>44557</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C9" s="1">
         <v>44582</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
         <v>44564</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C10" s="1">
         <v>44588</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>44586</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44601</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
         <v>44585</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C12" s="1">
         <v>44613</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
         <v>44557</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C13" s="1">
         <v>44625</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="4">
-        <v>44627</v>
-      </c>
-      <c r="D13" s="1">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>44623</v>
+      </c>
+      <c r="C14" s="1">
         <v>44635</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Documents\GitHub\Senior_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://testbctcstudent-my.sharepoint.com/personal/jusnun404_bctcstudent_org/Documents/Visual Basics/GitHub/Senior_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822AEC1E-D387-4669-88EC-2CD829D97746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{822AEC1E-D387-4669-88EC-2CD829D97746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F82842D-66B6-4DAE-B429-B50F9CAD083D}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{D2CA3B49-F37C-404E-8452-632B820BCCBE}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>Add the Themes to the GUI, and stylize it.</t>
   </si>
   <si>
-    <t xml:space="preserve">Desing </t>
-  </si>
-  <si>
     <t>Test the 2 last functions, and if the have errors correct it.</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Find ways and guides to carry out what the program and its planning require</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design </t>
   </si>
 </sst>
 </file>
@@ -278,7 +278,7 @@
                   <c:v>Research </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Desing </c:v>
+                  <c:v>Design </c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>GUI Skeleton</c:v>
@@ -391,7 +391,7 @@
                   <c:v>Research </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Desing </c:v>
+                  <c:v>Design </c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>GUI Skeleton</c:v>
@@ -1545,7 +1545,7 @@
   <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
         <f>_xlfn.DAYS(C4,B4)</f>
@@ -1600,10 +1600,10 @@
         <v>44520</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F14" si="0">_xlfn.DAYS(C5,B5)</f>
@@ -1654,10 +1654,10 @@
         <v>44557</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
@@ -1690,10 +1690,10 @@
         <v>44588</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
@@ -1708,10 +1708,10 @@
         <v>44601</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
@@ -1744,10 +1744,10 @@
         <v>44625</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>

--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://testbctcstudent-my.sharepoint.com/personal/jusnun404_bctcstudent_org/Documents/Visual Basics/GitHub/Senior_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{822AEC1E-D387-4669-88EC-2CD829D97746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F82842D-66B6-4DAE-B429-B50F9CAD083D}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{822AEC1E-D387-4669-88EC-2CD829D97746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B6CBFEA-BAE6-4AA1-89F1-DC7C5F59DA4E}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{D2CA3B49-F37C-404E-8452-632B820BCCBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Start Date</t>
   </si>
@@ -115,6 +115,30 @@
   </si>
   <si>
     <t xml:space="preserve">Design </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value </t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Launch of the Close Beta V0.1</t>
+  </si>
+  <si>
+    <t>Beta Update V0.2</t>
+  </si>
+  <si>
+    <t>The GUI is ready for use</t>
+  </si>
+  <si>
+    <t>Release of the Program V1.0</t>
+  </si>
+  <si>
+    <t>The GUI is completed</t>
   </si>
 </sst>
 </file>
@@ -197,7 +221,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
@@ -207,6 +231,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -484,6 +509,1736 @@
         <c:axId val="614930096"/>
         <c:axId val="614930424"/>
       </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5799FC44-3EBD-42B6-AB0B-F7ECD90A6251}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9318-4B53-BC3C-939B13C6372E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9318-4B53-BC3C-939B13C6372E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$J$4</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>Launch of the Close Beta V0.1</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CA8B54D4-8423-4049-86C6-5E86C76A884D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-9318-4B53-BC3C-939B13C6372E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-9318-4B53-BC3C-939B13C6372E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$J$6</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>Beta Update V0.2</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11295829292301687"/>
+                  <c:y val="4.6296296296296294E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4EAABFEE-E0B8-424B-931F-D09056D09F7E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-9318-4B53-BC3C-939B13C6372E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-9318-4B53-BC3C-939B13C6372E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$8:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$8:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$J$8</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>The GUI is ready for use</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1553FC3B-ACED-4659-AF76-AD655F07C5A8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-9318-4B53-BC3C-939B13C6372E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-9318-4B53-BC3C-939B13C6372E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$J$10</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>Release of the Program V1.0</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3565512479515041E-2"/>
+                  <c:y val="-0.27619290148465087"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{84A2FB51-B603-44ED-A186-C6173C41C5AF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-9318-4B53-BC3C-939B13C6372E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-9318-4B53-BC3C-939B13C6372E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$12:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$J$12</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>The GUI is completed</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-9318-4B53-BC3C-939B13C6372E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="527099808"/>
+        <c:axId val="535216488"/>
+      </c:scatterChart>
       <c:catAx>
         <c:axId val="614930096"/>
         <c:scaling>
@@ -606,6 +2361,35 @@
         <c:crossAx val="614930096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="535216488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="527099808"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="527099808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="535216488"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1209,15 +2993,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>586154</xdr:colOff>
+      <xdr:colOff>586153</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>917330</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1542,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F41711F-647E-45BD-B0D2-B131E9E587E9}">
-  <dimension ref="B3:F14"/>
+  <dimension ref="B3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,9 +3339,11 @@
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="103.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1573,8 +3359,17 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>44472</v>
       </c>
@@ -1591,8 +3386,17 @@
         <f>_xlfn.DAYS(C4,B4)</f>
         <v>135</v>
       </c>
+      <c r="H4" s="1">
+        <v>44539</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>44500</v>
       </c>
@@ -1609,8 +3413,15 @@
         <f t="shared" ref="F5:F14" si="0">_xlfn.DAYS(C5,B5)</f>
         <v>20</v>
       </c>
+      <c r="H5" s="1">
+        <v>44539</v>
+      </c>
+      <c r="I5" s="2">
+        <v>80</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>44514</v>
       </c>
@@ -1627,8 +3438,17 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="H6" s="1">
+        <v>44581</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>44532</v>
       </c>
@@ -1645,8 +3465,15 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="H7" s="1">
+        <v>44581</v>
+      </c>
+      <c r="I7" s="2">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>44544</v>
       </c>
@@ -1663,8 +3490,17 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="H8" s="1">
+        <v>44528</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>44557</v>
       </c>
@@ -1681,8 +3517,15 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="H9" s="1">
+        <v>44528</v>
+      </c>
+      <c r="I9" s="2">
+        <v>80</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>44564</v>
       </c>
@@ -1699,8 +3542,17 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="H10" s="1">
+        <v>44625</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>44586</v>
       </c>
@@ -1717,8 +3569,15 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="H11" s="1">
+        <v>44625</v>
+      </c>
+      <c r="I11" s="2">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>44585</v>
       </c>
@@ -1735,8 +3594,17 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="H12" s="1">
+        <v>44604</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>44557</v>
       </c>
@@ -1753,8 +3621,15 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
+      <c r="H13" s="1">
+        <v>44604</v>
+      </c>
+      <c r="I13" s="2">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>44623</v>
       </c>
